--- a/src/test/resources/testdata/Client/Product.xlsx
+++ b/src/test/resources/testdata/Client/Product.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\NewFramework_Appium\src\test\resources\testdata\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Appium\src\test\resources\testdata\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D737468F-B57E-47EC-8CD2-23524C6F599F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8535E63B-B8A3-4005-A643-CCE6E8E07774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{181615CE-948B-4B1E-A394-A1F048FF8318}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{181615CE-948B-4B1E-A394-A1F048FF8318}"/>
   </bookViews>
   <sheets>
     <sheet name="smoke" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="34">
   <si>
     <t>Steps</t>
   </si>
@@ -717,7 +717,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -767,9 +767,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="8" t="s">
@@ -801,9 +799,7 @@
       <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="8" t="s">
@@ -822,9 +818,7 @@
       <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="11" t="s">
@@ -890,32 +884,27 @@
       <c r="F9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="G9" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{5B754E75-4709-498C-BB1A-D4FAB4B6FEB3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1103,18 +1092,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1303,18 +1292,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1327,23 +1316,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005C83CA1A5F4AE4C9BEF6454A5CBD615" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec7417affe12c862527167136ce573ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xmlns:ns4="e178c8a6-526e-465c-b240-e7ca9adf772c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b3e517818b1b2821051a10e8ea2fc5c" ns3:_="" ns4:_="">
     <xsd:import namespace="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
@@ -1576,25 +1548,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F607A51-1680-4B23-AACE-40B4CF7D53C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C1F0FE-A252-4DCA-9928-5CED55A2AC2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B973315-B0F0-4CE1-9BD5-E731C7EF6E1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1611,4 +1582,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C1F0FE-A252-4DCA-9928-5CED55A2AC2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F607A51-1680-4B23-AACE-40B4CF7D53C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>